--- a/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
+++ b/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\game_MagicWealth\ClientConfig\LubanLaunchConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,6 +63,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>(list#sep=;),string</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -107,6 +105,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>https://slotapp.s3.amazonaws.com/resource</t>
+  </si>
+  <si>
+    <t>GoldenTestRes</t>
+  </si>
+  <si>
     <t>SJYT20175638FDUUKNS38393753029039V32f700</t>
   </si>
   <si>
@@ -123,25 +127,19 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>MagicWealthTestRes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;),string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gamesgt.s3.ap-southeast-1.amazonaws.com</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,33 +170,143 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +325,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -241,18 +523,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -263,32 +778,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -575,19 +1131,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="3" max="3" width="42.625" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
@@ -649,34 +1205,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -684,114 +1240,120 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:13">
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="1">
         <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://slotapp.s3.amazonaws.com/resource" tooltip="https://slotapp.s3.amazonaws.com/resource"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
+++ b/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\game_MagicWealth\ClientConfig\LubanLaunchConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\MegaGold\ClientConfig\LubanLaunchConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -125,15 +125,15 @@
     <t>English</t>
   </si>
   <si>
-    <t>MagicWealthTestRes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>(list#sep=;),string</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://gamesgt.s3.ap-southeast-1.amazonaws.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MegaGoldhTestRes</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +584,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>15</v>
@@ -728,10 +728,10 @@
         <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>

--- a/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
+++ b/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\game_MagicWealth\ClientConfig\LubanLaunchConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\games_GTmegaChampion_9\ClientConfig\LubanLaunchConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -125,15 +125,15 @@
     <t>English</t>
   </si>
   <si>
-    <t>MagicWealthTestRes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>(list#sep=;),string</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://gamesgt.s3.ap-southeast-1.amazonaws.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTMegaChampionTestRes</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +584,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>15</v>
@@ -728,10 +728,10 @@
         <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>

--- a/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
+++ b/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\games_GTmegaChampion_9\ClientConfig\LubanLaunchConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Client\games_GTmegaChampion_9\ClientConfig\LubanLaunchConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -133,7 +133,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GTMegaChampionTestRes</t>
+    <t>GTCrazySpinTestRes</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +584,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
+++ b/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\games_GTmegaChampion_9\ClientConfig\LubanLaunchConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="24045" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,6 +63,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>(list#sep=;),string</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -107,6 +105,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>https://gamesgt.s3.ap-southeast-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>GoldenMagicRes</t>
+  </si>
+  <si>
     <t>SJYT20175638FDUUKNS38393753029039V32f700</t>
   </si>
   <si>
@@ -123,25 +127,19 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>(list#sep=;),string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gamesgt.s3.ap-southeast-1.amazonaws.com</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTMegaChampionTestRes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,27 +176,129 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +317,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -241,18 +515,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -263,32 +770,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -575,19 +1123,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="3" max="3" width="42.625" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
@@ -649,34 +1197,34 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -684,114 +1232,120 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="2:13">
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="1">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://gamesgt.s3.ap-southeast-1.amazonaws.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
+++ b/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\games_GTmegaChampion_9\ClientConfig\LubanLaunchConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Client\games_crazyspin\ClientConfig\LubanLaunchConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -133,7 +133,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GTMegaChampionTestRes</t>
+    <t>SlotsWinnerTestRes</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +584,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
+++ b/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitClient\games_GTmegaChampion_9\ClientConfig\LubanLaunchConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -32,9 +27,6 @@
     <t>DNS</t>
   </si>
   <si>
-    <t>CdnDirectoryName</t>
-  </si>
-  <si>
     <t>Auth</t>
   </si>
   <si>
@@ -68,6 +60,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>(list#sep=;),string</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -77,9 +72,6 @@
     <t>域名</t>
   </si>
   <si>
-    <t>更新文件夹</t>
-  </si>
-  <si>
     <t>授权码</t>
   </si>
   <si>
@@ -107,6 +99,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>https://gamesgt.s3.ap-southeast-1.amazonaws.com</t>
+  </si>
+  <si>
     <t>SJYT20175638FDUUKNS38393753029039V32f700</t>
   </si>
   <si>
@@ -123,25 +118,19 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>(list#sep=;),string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gamesgt.s3.ap-southeast-1.amazonaws.com</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTMegaChampionTestRes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,26 +168,128 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +308,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -241,18 +506,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -263,32 +761,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -575,32 +1114,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="3" max="3" width="42.625" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="44.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="44.875" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -631,25 +1169,22 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>15</v>
@@ -672,17 +1207,14 @@
       <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -699,7 +1231,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -713,85 +1245,85 @@
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:12">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="1">
+      <c r="L4" s="1">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://gamesgt.s3.ap-southeast-1.amazonaws.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
+++ b/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
@@ -99,7 +99,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>https://gamesgt.s3.ap-southeast-1.amazonaws.com</t>
+    <t>https://gt-game-india.oss-ap-south-1.aliyuncs.com</t>
   </si>
   <si>
     <t>SJYT20175638FDUUKNS38393753029039V32f700</t>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1285,9 +1285,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://gamesgt.s3.ap-southeast-1.amazonaws.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
+++ b/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
@@ -99,7 +99,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>https://gt-game-india.oss-ap-south-1.aliyuncs.com</t>
+    <t>gt-game-india.oss-accelerate.aliyuncs.com;oss-accelerate.aliyuncs.com;https://gt-game-india.oss-ap-south-1.aliyuncs.com</t>
   </si>
   <si>
     <t>SJYT20175638FDUUKNS38393753029039V32f700</t>
@@ -770,7 +770,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1252,7 +1252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:12">
+    <row r="4" s="1" customFormat="1" ht="54" spans="2:12">
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>

--- a/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
+++ b/LubanLaunchConfig/Datas/LaunchPreConfig.xlsx
@@ -99,7 +99,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>gt-game-india.oss-accelerate.aliyuncs.com;oss-accelerate.aliyuncs.com;https://gt-game-india.oss-ap-south-1.aliyuncs.com</t>
+    <t>https://gt-game-india.oss-accelerate.aliyuncs.com;https://oss-accelerate.aliyuncs.com;https://gt-game-india.oss-ap-south-1.aliyuncs.com</t>
   </si>
   <si>
     <t>SJYT20175638FDUUKNS38393753029039V32f700</t>
@@ -1285,6 +1285,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="https://gt-game-india.oss-accelerate.aliyuncs.com;https://oss-accelerate.aliyuncs.com;https://gt-game-india.oss-ap-south-1.aliyuncs.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
